--- a/views/laporan/provinsi.xlsx
+++ b/views/laporan/provinsi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\yii2_laporan_jumlah_penduduk\views\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC47155-BEE9-4096-A414-D9C70BD4B761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C247BE4B-34D4-40A8-830F-E625870E1F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1E500FB5-0E72-442E-9EB0-4BA97669400B}"/>
   </bookViews>
@@ -111,23 +111,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,7 +469,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,174 +479,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
